--- a/CASProject/testdata/NewsHeadings.xlsx
+++ b/CASProject/testdata/NewsHeadings.xlsx
@@ -12,27 +12,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Top 10 takeaways from our Q4 2023 earnings</t>
-  </si>
-  <si>
-    <t>Sustaining and extending our momentum</t>
-  </si>
-  <si>
-    <t>Impact Awards 2024: "We have all earned this moment of celebration."</t>
-  </si>
-  <si>
-    <t>Insurers still weighing impacts of AI</t>
-  </si>
-  <si>
-    <t>"Venture capitalist on the inside": Innovation in a tech services company</t>
-  </si>
-  <si>
-    <t>Sneak peek of the 2024 Impact Awards</t>
-  </si>
-  <si>
-    <t>Listen to our Q4 earnings call on February 6</t>
+    <t xml:space="preserve">As Ravi shares in his video, “we have all earned this moment of celebration.” 
+ Join us live for the 2024 Impact Awards on February 13 to celebrate performance-based achievements across all parts of the business.  
+ If you live near a city hosting a watch party, keep an eye on your Cognizant inbox for an invitation. Otherwise, join the rest of your colleagues virtually for our livestream extravaganza:  
+ Date: Tuesday, February 13  
+Time: 6:30 PM IST | 1:00 PM GMT | 8:00 AM EST  
+Where: https://cognizant.brandlive.com/Impact-Awards-2024/en  
+ Download the Outlook invite for the Awards. 
+Download the Outlook invite for the pre-show entertainment: Thaikkudam Bridge! Livestream link to come soon. 
+ Before the event, take a minute to meet our finalists of the Social Impact Project of the Year Award and the Spirit Award. You can also meet our employee emcees and watch their videos as they welcome you to the event. 
+ The event promises to be a momentous occasion to celebrate your exceptional achievements. 
+ We can’t wait to see you there.  </t>
   </si>
 </sst>
 </file>
@@ -77,45 +69,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="5">
+      <c r="B5" t="s" s="0">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/CASProject/testdata/NewsHeadings.xlsx
+++ b/CASProject/testdata/NewsHeadings.xlsx
@@ -1,40 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303838\eclipse-workspace-selenium\CASProject\CASProject\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E03E29A-2AE3-45E5-8ED6-C7F382110DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">As Ravi shares in his video, “we have all earned this moment of celebration.” 
- Join us live for the 2024 Impact Awards on February 13 to celebrate performance-based achievements across all parts of the business.  
- If you live near a city hosting a watch party, keep an eye on your Cognizant inbox for an invitation. Otherwise, join the rest of your colleagues virtually for our livestream extravaganza:  
- Date: Tuesday, February 13  
-Time: 6:30 PM IST | 1:00 PM GMT | 8:00 AM EST  
-Where: https://cognizant.brandlive.com/Impact-Awards-2024/en  
- Download the Outlook invite for the Awards. 
-Download the Outlook invite for the pre-show entertainment: Thaikkudam Bridge! Livestream link to come soon. 
- Before the event, take a minute to meet our finalists of the Social Impact Project of the Year Award and the Spirit Award. You can also meet our employee emcees and watch their videos as they welcome you to the event. 
- The event promises to be a momentous occasion to celebrate your exceptional achievements. 
- We can’t wait to see you there.  </t>
+    <t>I am so grateful to all of you across our global community for your tremendous work enhancing our company’s strength as industry experts, collaborative partners, and passionate innovators for our clients. Thanks to your productive efforts, Cognizant executed well in the fourth quarter and throughout the year, and you can read the details of our fourth quarter and full-year 2023 performance in our press release. 
+ To call your attention to three highlights from Q4. 
+ First, we delivered revenue within our guidance range, maintained our commercial momentum, and meaningfully exceeded our adjusted operating margin expectation—all this despite ongoing macro-economic pressures. 
+Second, we made further progress on our goal to increase the percentage of large deals and new business in the overall mix. 
+And third, we saw continued improvement in our voluntary attrition. 
+ It is especially gratifying to see our continued decline in attrition. Trailing 12-month voluntary attrition for our tech services business declined to 13.8%. That is down 2.4 percentage points from the prior quarter and down 12 points year-over-year.
+ Achievement creates both confidence and momentum. Together, we moved our company forward in 2023. We deepened our expertise at the intersection of technology and industry use cases to deliver industry-specific solutions in service of business outcomes. We enhanced our collaboration and co-creation with clients and our broad partner ecosystem to stitch together industry-leading capabilities. 
+ Our innovation engine ran at high velocity: 55,000 of you generated more than 100,000 ideas, 21,000 of which we’ve already implemented through our Bluebolt program. We are making innovation everyone’s job, every day. And now we plan to augment Bluebolt through our new collaboration with Microsoft to launch the Innovation Assistant, a generative AI-powered tool built on Azure OpenAI Service.
+ During the year, we also demonstrated our comprehensive commitment to building AI leadership. We’re helping clients understand and deploy generative AI to increase their productivity and improve their customer experiences. Think of the client value we’re creating with our expanding gen AI portfolio, which now consists of Cognizant Neuro IT Operations, Cognizant Skygrade, Cognizant Neuro AI, and, our newest addition, Cognizant Flowsource, developed to help engineering teams deliver high-quality code faster, with increased control and transparency. We’re also committed to organization-wide training in the foundations of gen AI, and last year 88,000 of our employees completed courses on AI and generative AI tools and technologies. 
+ I also want to express my delight that the Thirdera team, bringing exceptional expertise across all ServiceNow products and platforms, is now officially part of Cognizant’s ServiceNow Business Group. I see an expansive opportunity for us as we push our thought leadership and innovation agenda to lead in this era of enterprise automation.
+ You know how committed we are to Cognizant becoming an employer of choice in our industry. We are making meaningful progress. Our voluntary attrition declined to multi-year lows while our employee engagement scores improved. We introduced Shakti to unify our women-centric programs to further boost women leadership in technology. And next week we will bring together our entire employee population in gatherings physical and virtual to recognize excellence across the business with our companywide awards program: The Impact Awards. 
+ I feel so much positive energy coming to work each day. I love the high level of initiative and motivation I see across our company. After my full-year immersion into “everything Cognizant,” I have confidence in our potential to increase our revenue growth, and I believe we’re now in a significantly stronger position than one year ago to seize the opportunities ahead. 
+ Huge thanks to all of you for working so hard to make 2023 such a productive year. Our mantra for 2024 is consistent execution in everything we do. 
+ Best Regards,  
+Ravi Kumar S, CEO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,7 +57,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -64,23 +75,333 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5">
-      <c r="B5" t="s" s="0">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CASProject/testdata/NewsHeadings.xlsx
+++ b/CASProject/testdata/NewsHeadings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303838\eclipse-workspace-selenium\CASProject\CASProject\testdata\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>I am so grateful to all of you across our global community for your tremendous work enhancing our company’s strength as industry experts, collaborative partners, and passionate innovators for our clients. Thanks to your productive efforts, Cognizant executed well in the fourth quarter and throughout the year, and you can read the details of our fourth quarter and full-year 2023 performance in our press release. 
  To call your attention to three highlights from Q4. 
@@ -38,11 +38,84 @@
  Best Regards,  
 Ravi Kumar S, CEO</t>
   </si>
+  <si>
+    <t>Cognizant’s five retail trends for 2024</t>
+  </si>
+  <si>
+    <t>The retail industry witnessed unprecedented technological advancements in the past year with the emergence of generative AI amid global economic disruptions. AI is set to transform the retail sector, potentially increasing profits from $5 billion to $31 billion by 2028. Here are Cognizant’s five trends that will shape the industry this year:
+ Rise of the phygital stores 
+The emergence of phygital stores indicates that retailers are converging physical and digital retail to enhance customer experience. Retailers will implement AI, virtual and augmented reality, and tablets and devices to aid customer assistance and recommendations, thus empowering customers to transition seamlessly between physical and digital touchpoints when shopping. Technology in physical stores will enable retailers to host events, classes, and demonstrations and assist employees in locating items, checking inventories, and providing customized assistance.
+ Using tech to tackle small in-person fraud
+Theft and fraudulent activities significantly impact retailers worldwide. Retailers made significant progress in preventing fraud on e-commerce platforms using AI to identify and pre-empt attacks. This year, we will witness technology implementation, including generative AI, image recognition, and sensors, to combat theft and fraud in physical retail spaces.
+ Tuning into diverse shopping styles for ultimate convenience – one generation at a time
+With the help of artificial intelligence, retailers will dig into "hyper-personalization” to offer tailored options to different generations of shoppers with varying shopping styles. Retail companies have more data on the buying patterns of different generations. For example, Boomers prefer visiting physical stores initially but are open to digital supplementation. They use coupons and online promotions to save money while showing little interest in augmented reality.
+ Meanwhile, millennials are open to leveraging physical and online shopping based on convenience, straddling various trends. Gen Zs initiate their shopping experience online or through links from social media, emphasizing the growing influence of social commerce. For this generation, engaging with influencers and prioritizing brand relevance through social impact and sustainability are essential, as they prioritize a frictionless shopping experience and show less brand loyalty.
+ Here, at Cognizant, boomers comprise of 1% of the organization, millennials, represent 57% and we have 32% of associates belonging to Gen Z.
+ Becoming a sustainable, future-proof retailer
+Research by Earth.org highlighted that garment usage has declined over the last two decades. Since 2000, people have decreased the average number of times they wear a piece of clothing by 36%. To counteract this, retailers are exploring generative AI to act as personal shopping assistants for customers based on shopping habits, past purchases, shopper's physical characteristics, preferred style, and purpose of purchase, reducing shopping ‘mistakes’, improve the cost-per-wear of purchased items, and minimize retail waste.
+ Generative AI also offers personalized, conversational interactions. Online retailer The Man Company implemented an AI-enabled chatbot via WhatsApp to provide personalized product recommendations based on shoppers’ prompts, tripling conversion rates within six months without making any other changes to its marketing campaigns or shopper experience. In addition, retailers are focusing on waste reduction throughout their value chains and increasing sales of their own-label products to address ongoing pressures on household budgets.
+ Seamless and frictionless checkout and generative AI enabled hyper-personalization
+The New Year will also see a retail revolution with the widespread adoption of a "seamless, checkout-free shopping experience" by integrating product information systems, payment gateways, and generative AI for more personalized commerce, marketing, and customer service. As customers scan items in the store, the system automatically authenticates them. For example - Amazon Fresh grocery stores already charge customers' bank accounts through details stored on their Amazon accounts upon exit. We should see an expansion of this beyond supermarkets to airports, sports stadiums, and education campuses.
+ Concluding thoughts
+The retail sector will be at the forefront of innovation this year. From incorporating tech in retail outlets to creating phygital stores, retailers must take the pragmatic approach to incorporate these trends. The emergence of generative AI and other technological advancements is also poised to profoundly transform the industry and enhance the overall customer experience and seamless shopping experience.
+ Share this article on LinkedIn.</t>
+  </si>
+  <si>
+    <t>Meet the finalists of the 2024 Impact Awards</t>
+  </si>
+  <si>
+    <t>The Impact Awards will be a celebration to remember. We’re celebrating teams and individuals across the business in several categories. Two of the awards are the Spirit Award and the Social Impact Project of the Year Award. A few weeks ago, we asked for your nominations for these awards and here are the finalists!  
+ Social Impact Project of the Year Award
+ Vijayapriya VS, engagement delivery partner, Americas Life Sciences, is a self-starter whose outreach work has impacted more than 5,000 students. In addition to her GDstein series, she has created an opportunity to showcase young talent working toward manufacturing prosthetic hands for those in need. Her work is not limited to students — she also created a startup-focused series that showcases their work on ecological restoration.
+ Project DHYEYA is committed to empowering underprivileged students. The program offers academic training, financial support and mentorship to students across multiple cities in India. The team mobilizes a network of more than 200 dedicated employee volunteers, helping students gain admission to top universities and scoring high in competitive exams, like the NTSE and NMMSS.  
+ The CTS Raleigh-Durham team supports their local community through cleaning trails, volunteering at the Ronald McDonald House and participating in charity walks — and they also work hard to foster community amongst themselves. Through their Engage (Yammer) page and WhatsApp group, they ensure seamless communication within their organization. They make events accessible and enjoyable for all team members, which in turn creates a strong sense of team unity.  
+ Spirit Award
+ Raghuveeran Sowmyanarayanan, senior director, AIA Delivery, has elevated the standards of project management within the organization. Leading his team strategically and emphasizing teamwork and collaboration, his programs, like the Gen AI Hackathons, foster teamwork, creativity and learning. He frequently encourages his team to make time for upskilling, and with his AICyclopedia tech talks, he shows he values intellectual curiosity. His innovation creates a dynamic team, ready to tackle AI.  
+ As a team leader for IOA Tech AI/ML, Verna Lyn Pascual’s team emphasized how she is the model of an empathetic leader. She has infectious enthusiasm and dedicates herself to making sure everyone on her team feels at ease and included. She takes leadership courses to make sure she’s doing her part for her team and is always asking for feedback on her leadership. She’s been described as the “safest person to turn to for help.”  
+ Sumita Biswal, program manager, QEA BFS, has a customer-focused approach that has earned her team the highest NPS score of the last four years. She supports those on her team with leadership potential and frequently has skip-level meetings with her team so that she can fully support them and understand different dimensions of the work. She created a “celebration team” to lead activities, like in-office celebrations and women associate sessions, leading to increased motivation for her team. 
+ Watch the winners live 
+On February 13, tune in to view winners from this list and from other categories across the company.  
+ Date: Tuesday, February 13   
+Time: 6:30 PM IST | 1:00 PM GMT | 8:00 AM EST   
+Where: https://cognizant.brandlive.com/Impact-Awards-2024/en   
+Watch the teaser video below or click to watch here
+ Be sure to check out your emcees too!</t>
+  </si>
+  <si>
+    <t>Meet your employee emcees for the 2024 Impact Awards!</t>
+  </si>
+  <si>
+    <t>Excitement is building as we prepare for the first-ever Impact Awards, which is all about recognizing the incredible achievements of our employees. As part of our commitment to recognition, we are thrilled to introduce the four talented associates who will guide us through the festivities as our emcees. They may even be your team members! 
+ Chennai</t>
+  </si>
+  <si>
+    <t>Top 10 takeaways from our Q4 2023 earnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Tuesday’s earnings call, Ravi and Jatin discussed our recent performance in the fourth quarter and the full-year (FY) 2023. Here are the top 10 takeaways, covering both the numbers and company news.
+ Top 10 takeaways
+FY revenue of $19.4B, a slight decline of 0.4% year-over-year, within our guidance range
+FY operating margin of 13.9%, above our guidance range
+FY operating cash flow of $2.3B
+12-month bookings of $26.3B, up 9% year-over-year
+Headcount in Q4 was 347,700, up 1,100 from Q3, but an overall decrease of 7,600 year-over-year
+Voluntary attrition for 2023 was 13.8%, down nearly 12% from 2022
+Numerous client wins, including Takeda, Fortrea, Cambridge University Press &amp; Assessment, Alm. Brand Group, University of Melbourne, and Riyadh Airports Company
+Several partnership announcing, including ServiceNow, Microsoft, and Amazon
+Partnered with Oxford Economics to quantify generative AI’s impact on productivity and the future of work
+Earned a top score in Human Rights Campaign Foundation’s 2023-2024 Corporate Equality Index
+ Read Ravi's full message to Cognizant associates here. 
+ Missed the call? A replay will be available at Cognizant.com starting on February 7. You can also read the Q4 results press release here. </t>
+  </si>
+  <si>
+    <t>Sustaining and extending our momentum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -396,9 +469,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/CASProject/testdata/NewsHeadings.xlsx
+++ b/CASProject/testdata/NewsHeadings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="10">
   <si>
     <t>I am so grateful to all of you across our global community for your tremendous work enhancing our company’s strength as industry experts, collaborative partners, and passionate innovators for our clients. Thanks to your productive efforts, Cognizant executed well in the fourth quarter and throughout the year, and you can read the details of our fourth quarter and full-year 2023 performance in our press release. 
  To call your attention to three highlights from Q4. 

--- a/CASProject/testdata/NewsHeadings.xlsx
+++ b/CASProject/testdata/NewsHeadings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303838\eclipse-workspace-selenium\CASProject\CASProject\testdata\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>I am so grateful to all of you across our global community for your tremendous work enhancing our company’s strength as industry experts, collaborative partners, and passionate innovators for our clients. Thanks to your productive efforts, Cognizant executed well in the fourth quarter and throughout the year, and you can read the details of our fourth quarter and full-year 2023 performance in our press release. 
  To call your attention to three highlights from Q4. 
@@ -38,11 +38,18 @@
  Best Regards,  
 Ravi Kumar S, CEO</t>
   </si>
+  <si>
+    <t>Cognizant’s five retail trends for 2024</t>
+  </si>
+  <si>
+    <t>Meet the finalists of the 2024 Impact Awards</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -396,8 +403,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/CASProject/testdata/NewsHeadings.xlsx
+++ b/CASProject/testdata/NewsHeadings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="17">
   <si>
     <t>I am so grateful to all of you across our global community for your tremendous work enhancing our company’s strength as industry experts, collaborative partners, and passionate innovators for our clients. Thanks to your productive efforts, Cognizant executed well in the fourth quarter and throughout the year, and you can read the details of our fourth quarter and full-year 2023 performance in our press release. 
  To call your attention to three highlights from Q4. 
@@ -43,6 +43,48 @@
   </si>
   <si>
     <t>Meet the finalists of the 2024 Impact Awards</t>
+  </si>
+  <si>
+    <t>Meet your employee emcees for the 2024 Impact Awards!</t>
+  </si>
+  <si>
+    <t>Top 10 takeaways from our Q4 2023 earnings</t>
+  </si>
+  <si>
+    <t>Sustaining and extending our momentum</t>
+  </si>
+  <si>
+    <t>Our growth mindset</t>
+  </si>
+  <si>
+    <t>Impact Awards 2024: Here is the list of final winners!</t>
+  </si>
+  <si>
+    <t>What does 2024 hold for communications and media?</t>
+  </si>
+  <si>
+    <t>100 trainings and counting: Meet super learner Bhavya Singam</t>
+  </si>
+  <si>
+    <t>Gender equity and women in technology</t>
+  </si>
+  <si>
+    <t>Ravi: Embracing hybrid work for the future</t>
+  </si>
+  <si>
+    <t>“Learning helps reinforce my emotional intelligence”: Meet super learner Sefora Wanderley</t>
+  </si>
+  <si>
+    <t>Cognizant launches an Advanced Artificial Intelligence Lab</t>
+  </si>
+  <si>
+    <t>Have just a minute? That’s enough to grow your skills on the new MLS Reels app</t>
+  </si>
+  <si>
+    <t>Watch: Impact Awards winners praise their teams</t>
+  </si>
+  <si>
+    <t>Robots for QA testing: Cognizant’s award-winning technology</t>
   </si>
 </sst>
 </file>
@@ -395,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -405,17 +447,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s" s="0">
-        <v>0</v>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
